--- a/TestData/Register page/tc34.xlsx
+++ b/TestData/Register page/tc34.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohni\PycharmProjects\cchc_automation\TestData\Register page\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C921B8-0C8F-48BE-BFC4-02998DB4699D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC15D27-D950-496D-939D-30E0D3C0F338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,16 +54,16 @@
     <t>Weak_Cpass</t>
   </si>
   <si>
-    <t>Anu</t>
-  </si>
-  <si>
-    <t>Anu2@gmail.com</t>
-  </si>
-  <si>
-    <t>Bhopal</t>
-  </si>
-  <si>
-    <t>anu</t>
+    <t>Sandeep</t>
+  </si>
+  <si>
+    <t>Sandeep2@gmail.com</t>
+  </si>
+  <si>
+    <t>Vadodara</t>
+  </si>
+  <si>
+    <t>sand</t>
   </si>
 </sst>
 </file>
@@ -456,7 +456,7 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>9039124578</v>
+        <v>7817008526</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
